--- a/Films.xlsx
+++ b/Films.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="238">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Бойцовский клуб</t>
   </si>
   <si>
+    <t>Иван Васильевич меняет профессию</t>
+  </si>
+  <si>
     <t>Жизнь прекрасна</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>Криминальное чтиво</t>
   </si>
   <si>
+    <t>Операция «Ы» и другие приключения Шурика</t>
+  </si>
+  <si>
     <t>Игры разума</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>Матрица</t>
   </si>
   <si>
+    <t>Бриллиантовая рука</t>
+  </si>
+  <si>
     <t>Отступники</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>Властелин колец: Братство Кольца</t>
   </si>
   <si>
+    <t>В бой идут одни «старики»</t>
+  </si>
+  <si>
     <t>Тайна Коко</t>
   </si>
   <si>
@@ -118,6 +130,9 @@
     <t>Властелин колец: Две крепости</t>
   </si>
   <si>
+    <t>Джентльмены удачи</t>
+  </si>
+  <si>
     <t>Американская история X</t>
   </si>
   <si>
@@ -157,6 +172,12 @@
     <t>Огни большого города</t>
   </si>
   <si>
+    <t>...А зори здесь тихие</t>
+  </si>
+  <si>
+    <t>Кавказская пленница, или Новые приключения Шурика</t>
+  </si>
+  <si>
     <t>Клаус</t>
   </si>
   <si>
@@ -313,6 +334,9 @@
     <t>США • триллер  Режиссёр: Дэвид Финчер</t>
   </si>
   <si>
+    <t>СССР • комедия  Режиссёр: Леонид Гайдай</t>
+  </si>
+  <si>
     <t>Италия • военный  Режиссёр: Роберто Бениньи</t>
   </si>
   <si>
@@ -355,6 +379,9 @@
     <t>Франция • драма  Режиссёр: Роман Полански</t>
   </si>
   <si>
+    <t>СССР • военный  Режиссёр: Леонид Быков</t>
+  </si>
+  <si>
     <t>США • мультфильм  Режиссёр: Ли Анкрич</t>
   </si>
   <si>
@@ -364,6 +391,9 @@
     <t>Великобритания • криминал  Режиссёр: Гай Ричи</t>
   </si>
   <si>
+    <t>СССР • комедия  Режиссёр: Александр Серый</t>
+  </si>
+  <si>
     <t>США • драма  Режиссёр: Тони Кэй</t>
   </si>
   <si>
@@ -397,6 +427,9 @@
     <t>США • комедия  Режиссёр: Чарльз Чаплин</t>
   </si>
   <si>
+    <t>СССР • драма  Режиссёр: Станислав Ростоцкий</t>
+  </si>
+  <si>
     <t>Испания • мультфильм  Режиссёр: Серхио Паблос</t>
   </si>
   <si>
@@ -424,6 +457,9 @@
     <t>1999, 139 мин.</t>
   </si>
   <si>
+    <t>1973, 88 мин.</t>
+  </si>
+  <si>
     <t>1997, 116 мин.</t>
   </si>
   <si>
@@ -436,6 +472,9 @@
     <t>1994, 154 мин.</t>
   </si>
   <si>
+    <t>1965, 95 мин.</t>
+  </si>
+  <si>
     <t>2001, 135 мин.</t>
   </si>
   <si>
@@ -460,6 +499,9 @@
     <t>1999, 136 мин.</t>
   </si>
   <si>
+    <t>1968, 94 мин.</t>
+  </si>
+  <si>
     <t>2006, 151 мин.</t>
   </si>
   <si>
@@ -472,6 +514,9 @@
     <t>2001, 178 мин.</t>
   </si>
   <si>
+    <t>1973, 87 мин.</t>
+  </si>
+  <si>
     <t>2017, 105 мин.</t>
   </si>
   <si>
@@ -484,6 +529,9 @@
     <t>2002, 179 мин.</t>
   </si>
   <si>
+    <t>1971, 84 мин.</t>
+  </si>
+  <si>
     <t>1998, 119 мин.</t>
   </si>
   <si>
@@ -523,6 +571,12 @@
     <t>1931, 87 мин.</t>
   </si>
   <si>
+    <t>1972, 160 мин.</t>
+  </si>
+  <si>
+    <t>1966, 82 мин.</t>
+  </si>
+  <si>
     <t>2019, 96 мин.</t>
   </si>
   <si>
@@ -553,6 +607,9 @@
     <t>https://www.kinopoisk.ru/film/361/</t>
   </si>
   <si>
+    <t>https://www.kinopoisk.ru/film/42664/</t>
+  </si>
+  <si>
     <t>https://www.kinopoisk.ru/film/381/</t>
   </si>
   <si>
@@ -565,6 +622,9 @@
     <t>https://www.kinopoisk.ru/film/342/</t>
   </si>
   <si>
+    <t>https://www.kinopoisk.ru/film/42782/</t>
+  </si>
+  <si>
     <t>https://www.kinopoisk.ru/film/530/</t>
   </si>
   <si>
@@ -589,6 +649,9 @@
     <t>https://www.kinopoisk.ru/film/301/</t>
   </si>
   <si>
+    <t>https://www.kinopoisk.ru/film/46225/</t>
+  </si>
+  <si>
     <t>https://www.kinopoisk.ru/film/81314/</t>
   </si>
   <si>
@@ -601,6 +664,9 @@
     <t>https://www.kinopoisk.ru/film/328/</t>
   </si>
   <si>
+    <t>https://www.kinopoisk.ru/film/25108/</t>
+  </si>
+  <si>
     <t>https://www.kinopoisk.ru/film/679486/</t>
   </si>
   <si>
@@ -613,6 +679,9 @@
     <t>https://www.kinopoisk.ru/film/312/</t>
   </si>
   <si>
+    <t>https://www.kinopoisk.ru/film/44386/</t>
+  </si>
+  <si>
     <t>https://www.kinopoisk.ru/film/382/</t>
   </si>
   <si>
@@ -650,6 +719,12 @@
   </si>
   <si>
     <t>https://www.kinopoisk.ru/film/414/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/43395/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/44745/</t>
   </si>
   <si>
     <t>https://www.kinopoisk.ru/film/957887/</t>
@@ -1054,16 +1129,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1074,16 +1149,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1094,16 +1169,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1114,16 +1189,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1134,16 +1209,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1154,16 +1229,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1174,16 +1249,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1194,16 +1269,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1214,41 +1289,56 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1256,19 +1346,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1276,19 +1366,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1296,44 +1386,59 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1341,19 +1446,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1361,19 +1466,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1381,19 +1486,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1401,19 +1506,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1421,19 +1526,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1441,19 +1546,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1461,44 +1566,59 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1506,19 +1626,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1526,19 +1646,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1546,44 +1666,59 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1591,19 +1726,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1611,19 +1746,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1631,44 +1766,59 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1676,19 +1826,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1696,19 +1846,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1716,19 +1866,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1736,19 +1886,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1756,19 +1906,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1776,19 +1926,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1796,19 +1946,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1816,19 +1966,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1836,19 +1986,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1856,19 +2006,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1876,19 +2026,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1896,49 +2046,79 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1952,40 +2132,47 @@
     <hyperlink ref="F8" r:id="rId7"/>
     <hyperlink ref="F9" r:id="rId8"/>
     <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F17" r:id="rId14"/>
-    <hyperlink ref="F18" r:id="rId15"/>
-    <hyperlink ref="F19" r:id="rId16"/>
-    <hyperlink ref="F20" r:id="rId17"/>
-    <hyperlink ref="F21" r:id="rId18"/>
-    <hyperlink ref="F22" r:id="rId19"/>
-    <hyperlink ref="F23" r:id="rId20"/>
-    <hyperlink ref="F24" r:id="rId21"/>
-    <hyperlink ref="F26" r:id="rId22"/>
-    <hyperlink ref="F27" r:id="rId23"/>
-    <hyperlink ref="F28" r:id="rId24"/>
-    <hyperlink ref="F29" r:id="rId25"/>
-    <hyperlink ref="F31" r:id="rId26"/>
-    <hyperlink ref="F32" r:id="rId27"/>
-    <hyperlink ref="F33" r:id="rId28"/>
-    <hyperlink ref="F34" r:id="rId29"/>
-    <hyperlink ref="F36" r:id="rId30"/>
-    <hyperlink ref="F37" r:id="rId31"/>
-    <hyperlink ref="F38" r:id="rId32"/>
-    <hyperlink ref="F39" r:id="rId33"/>
-    <hyperlink ref="F40" r:id="rId34"/>
-    <hyperlink ref="F41" r:id="rId35"/>
-    <hyperlink ref="F42" r:id="rId36"/>
-    <hyperlink ref="F43" r:id="rId37"/>
-    <hyperlink ref="F44" r:id="rId38"/>
-    <hyperlink ref="F45" r:id="rId39"/>
-    <hyperlink ref="F46" r:id="rId40"/>
-    <hyperlink ref="F47" r:id="rId41"/>
-    <hyperlink ref="F48" r:id="rId42"/>
-    <hyperlink ref="F51" r:id="rId43"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Films.xlsx
+++ b/Films.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="466">
   <si>
     <t>Name</t>
   </si>
@@ -181,6 +181,156 @@
     <t>Клаус</t>
   </si>
   <si>
+    <t>Эта замечательная жизнь</t>
+  </si>
+  <si>
+    <t>Хороший, плохой, злой</t>
+  </si>
+  <si>
+    <t>Приключения Шерлока Холмса и доктора Ватсона: Собака Баскервилей</t>
+  </si>
+  <si>
+    <t>Хористы</t>
+  </si>
+  <si>
+    <t>Семь</t>
+  </si>
+  <si>
+    <t>Молчание ягнят</t>
+  </si>
+  <si>
+    <t>Шоу Трумана</t>
+  </si>
+  <si>
+    <t>Терминатор 2: Судный день</t>
+  </si>
+  <si>
+    <t>Как приручить дракона</t>
+  </si>
+  <si>
+    <t>Джанго освобожденный</t>
+  </si>
+  <si>
+    <t>Крестный отец 2</t>
+  </si>
+  <si>
+    <t>Собачье сердце</t>
+  </si>
+  <si>
+    <t>Нокдаун</t>
+  </si>
+  <si>
+    <t>Игра</t>
+  </si>
+  <si>
+    <t>Храброе сердце</t>
+  </si>
+  <si>
+    <t>Москва слезам не верит</t>
+  </si>
+  <si>
+    <t>Шерлок Холмс и доктор Ватсон: Знакомство</t>
+  </si>
+  <si>
+    <t>Гран Торино</t>
+  </si>
+  <si>
+    <t>Одержимость</t>
+  </si>
+  <si>
+    <t>Человек дождя</t>
+  </si>
+  <si>
+    <t>Прислуга</t>
+  </si>
+  <si>
+    <t>Летят журавли</t>
+  </si>
+  <si>
+    <t>Изгой</t>
+  </si>
+  <si>
+    <t>Шестое чувство</t>
+  </si>
+  <si>
+    <t>Зверополис</t>
+  </si>
+  <si>
+    <t>Офицеры</t>
+  </si>
+  <si>
+    <t>Спасти рядового Райана</t>
+  </si>
+  <si>
+    <t>Белый Бим Черное ухо</t>
+  </si>
+  <si>
+    <t>Эффект бабочки</t>
+  </si>
+  <si>
+    <t>В погоне за счастьем</t>
+  </si>
+  <si>
+    <t>Малыш</t>
+  </si>
+  <si>
+    <t>Судьба человека</t>
+  </si>
+  <si>
+    <t>Назад в будущее 2</t>
+  </si>
+  <si>
+    <t>Красавица и чудовище</t>
+  </si>
+  <si>
+    <t>Джентльмены</t>
+  </si>
+  <si>
+    <t>Дневник памяти</t>
+  </si>
+  <si>
+    <t>Укрощение строптивого</t>
+  </si>
+  <si>
+    <t>Римские каникулы</t>
+  </si>
+  <si>
+    <t>Однажды в Америке</t>
+  </si>
+  <si>
+    <t>Служебный роман</t>
+  </si>
+  <si>
+    <t>Унесённые ветром</t>
+  </si>
+  <si>
+    <t>Балто</t>
+  </si>
+  <si>
+    <t>Темный рыцарь: Возрождение легенды</t>
+  </si>
+  <si>
+    <t>Счастливое число Слевина</t>
+  </si>
+  <si>
+    <t>Жизнь других</t>
+  </si>
+  <si>
+    <t>Адвокат дьявола</t>
+  </si>
+  <si>
+    <t>Зеленая книга</t>
+  </si>
+  <si>
+    <t>Амадей</t>
+  </si>
+  <si>
+    <t>…А в душе я танцую</t>
+  </si>
+  <si>
+    <t>Они сражались за Родину</t>
+  </si>
+  <si>
     <t>The Shawshank Redemption</t>
   </si>
   <si>
@@ -310,6 +460,126 @@
     <t>Klaus</t>
   </si>
   <si>
+    <t>It's a Wonderful Life</t>
+  </si>
+  <si>
+    <t>Il buono, il brutto, il cattivo</t>
+  </si>
+  <si>
+    <t>Les Choristes</t>
+  </si>
+  <si>
+    <t>Se7en</t>
+  </si>
+  <si>
+    <t>The Silence of the Lambs</t>
+  </si>
+  <si>
+    <t>The Truman Show</t>
+  </si>
+  <si>
+    <t>Terminator 2: Judgment Day</t>
+  </si>
+  <si>
+    <t>How to Train Your Dragon</t>
+  </si>
+  <si>
+    <t>Django Unchained</t>
+  </si>
+  <si>
+    <t>The Godfather: Part II</t>
+  </si>
+  <si>
+    <t>Cinderella Man</t>
+  </si>
+  <si>
+    <t>The Game</t>
+  </si>
+  <si>
+    <t>Braveheart</t>
+  </si>
+  <si>
+    <t>Gran Torino</t>
+  </si>
+  <si>
+    <t>Whiplash</t>
+  </si>
+  <si>
+    <t>Rain Man</t>
+  </si>
+  <si>
+    <t>The Help</t>
+  </si>
+  <si>
+    <t>Cast Away</t>
+  </si>
+  <si>
+    <t>The Sixth Sense</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>Saving Private Ryan</t>
+  </si>
+  <si>
+    <t>The Butterfly Effect</t>
+  </si>
+  <si>
+    <t>The Pursuit of Happyness</t>
+  </si>
+  <si>
+    <t>The Kid</t>
+  </si>
+  <si>
+    <t>Back to the Future Part II</t>
+  </si>
+  <si>
+    <t>Beauty and the Beast</t>
+  </si>
+  <si>
+    <t>The Gentlemen</t>
+  </si>
+  <si>
+    <t>The Notebook</t>
+  </si>
+  <si>
+    <t>Il bisbetico domato</t>
+  </si>
+  <si>
+    <t>Roman Holiday</t>
+  </si>
+  <si>
+    <t>Once Upon a Time in America</t>
+  </si>
+  <si>
+    <t>Gone with the Wind</t>
+  </si>
+  <si>
+    <t>Balto</t>
+  </si>
+  <si>
+    <t>The Dark Knight Rises</t>
+  </si>
+  <si>
+    <t>Lucky Number Slevin</t>
+  </si>
+  <si>
+    <t>Das Leben der Anderen</t>
+  </si>
+  <si>
+    <t>The Devil's Advocate</t>
+  </si>
+  <si>
+    <t>Green Book</t>
+  </si>
+  <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
+    <t>Inside I'm Dancing</t>
+  </si>
+  <si>
     <t>США • драма  Режиссёр: Фрэнк Дарабонт</t>
   </si>
   <si>
@@ -433,6 +703,123 @@
     <t>Испания • мультфильм  Режиссёр: Серхио Паблос</t>
   </si>
   <si>
+    <t>США • фэнтези  Режиссёр: Фрэнк Капра</t>
+  </si>
+  <si>
+    <t>Италия • приключения  Режиссёр: Серджио Леоне</t>
+  </si>
+  <si>
+    <t>СССР • детектив  Режиссёр: Игорь Масленников</t>
+  </si>
+  <si>
+    <t>Франция • драма  Режиссёр: Кристоф Барратье</t>
+  </si>
+  <si>
+    <t>США • триллер  Режиссёр: Джонатан Демме</t>
+  </si>
+  <si>
+    <t>США • драма  Режиссёр: Питер Уир</t>
+  </si>
+  <si>
+    <t>США • фантастика  Режиссёр: Джеймс Кэмерон</t>
+  </si>
+  <si>
+    <t>США • мультфильм  Режиссёр: Дин ДеБлуа</t>
+  </si>
+  <si>
+    <t>США • вестерн  Режиссёр: Квентин Тарантино</t>
+  </si>
+  <si>
+    <t>СССР • фантастика  Режиссёр: Владимир Бортко</t>
+  </si>
+  <si>
+    <t>США • история  Режиссёр: Мэл Гибсон</t>
+  </si>
+  <si>
+    <t>СССР • мелодрама  Режиссёр: Владимир Меньшов</t>
+  </si>
+  <si>
+    <t>СССР • криминал  Режиссёр: Игорь Масленников</t>
+  </si>
+  <si>
+    <t>США • драма  Режиссёр: Клинт Иствуд</t>
+  </si>
+  <si>
+    <t>США • драма  Режиссёр: Дэмьен Шазелл</t>
+  </si>
+  <si>
+    <t>США • драма  Режиссёр: Барри Левинсон</t>
+  </si>
+  <si>
+    <t>США • драма  Режиссёр: Тейт Тейлор</t>
+  </si>
+  <si>
+    <t>СССР • военный  Режиссёр: Михаил Калатозов</t>
+  </si>
+  <si>
+    <t>США • детектив  Режиссёр: М. Найт Шьямалан</t>
+  </si>
+  <si>
+    <t>США • мультфильм  Режиссёр: Байрон Ховард</t>
+  </si>
+  <si>
+    <t>СССР • драма  Режиссёр: Владимир Роговой</t>
+  </si>
+  <si>
+    <t>США • военный  Режиссёр: Стивен Спилберг</t>
+  </si>
+  <si>
+    <t>США • фантастика  Режиссёр: Эрик Бресс</t>
+  </si>
+  <si>
+    <t>США • драма  Режиссёр: Габриэле Муччино</t>
+  </si>
+  <si>
+    <t>США • драма  Режиссёр: Чарльз Чаплин</t>
+  </si>
+  <si>
+    <t>СССР • драма  Режиссёр: Сергей Бондарчук</t>
+  </si>
+  <si>
+    <t>США • мультфильм  Режиссёр: Гари Труздейл</t>
+  </si>
+  <si>
+    <t>США • драма  Режиссёр: Ник Кассаветис</t>
+  </si>
+  <si>
+    <t>Италия • мелодрама  Режиссёр: Франко Кастеллано</t>
+  </si>
+  <si>
+    <t>США • мелодрама  Режиссёр: Уильям Уайлер</t>
+  </si>
+  <si>
+    <t>Италия • драма  Режиссёр: Серджио Леоне</t>
+  </si>
+  <si>
+    <t>СССР • мелодрама  Режиссёр: Эльдар Рязанов</t>
+  </si>
+  <si>
+    <t>США • мелодрама  Режиссёр: Виктор Флеминг</t>
+  </si>
+  <si>
+    <t>США • мультфильм  Режиссёр: Саймон Уэллс</t>
+  </si>
+  <si>
+    <t>США • триллер  Режиссёр: Пол Макгиган</t>
+  </si>
+  <si>
+    <t>Германия • триллер  Режиссёр: Флориан Хенкель фон Доннерсмарк</t>
+  </si>
+  <si>
+    <t>США • триллер  Режиссёр: Тейлор Хэкфорд</t>
+  </si>
+  <si>
+    <t>США • биография  Режиссёр: Питер Фаррелли</t>
+  </si>
+  <si>
+    <t>Великобритания • драма  Режиссёр: Дэмиен О’Доннелл</t>
+  </si>
+  <si>
     <t>1994, 142 мин.</t>
   </si>
   <si>
@@ -580,6 +967,153 @@
     <t>2019, 96 мин.</t>
   </si>
   <si>
+    <t>1947, 130 мин.</t>
+  </si>
+  <si>
+    <t>1966, 178 мин.</t>
+  </si>
+  <si>
+    <t>1981, 154 мин.</t>
+  </si>
+  <si>
+    <t>2004, 95 мин.</t>
+  </si>
+  <si>
+    <t>1995, 127 мин.</t>
+  </si>
+  <si>
+    <t>1990, 118 мин.</t>
+  </si>
+  <si>
+    <t>1998, 103 мин.</t>
+  </si>
+  <si>
+    <t>1991, 137 мин.</t>
+  </si>
+  <si>
+    <t>2010, 98 мин.</t>
+  </si>
+  <si>
+    <t>2012, 165 мин.</t>
+  </si>
+  <si>
+    <t>1974, 202 мин.</t>
+  </si>
+  <si>
+    <t>1988, 136 мин.</t>
+  </si>
+  <si>
+    <t>2005, 144 мин.</t>
+  </si>
+  <si>
+    <t>1997, 129 мин.</t>
+  </si>
+  <si>
+    <t>1995, 178 мин.</t>
+  </si>
+  <si>
+    <t>1979, 150 мин.</t>
+  </si>
+  <si>
+    <t>1979, 68 мин.</t>
+  </si>
+  <si>
+    <t>2008, 116 мин.</t>
+  </si>
+  <si>
+    <t>2013, 106 мин.</t>
+  </si>
+  <si>
+    <t>1988, 133 мин.</t>
+  </si>
+  <si>
+    <t>2011, 146 мин.</t>
+  </si>
+  <si>
+    <t>1957, 95 мин.</t>
+  </si>
+  <si>
+    <t>2000, 143 мин.</t>
+  </si>
+  <si>
+    <t>1999, 107 мин.</t>
+  </si>
+  <si>
+    <t>2016, 108 мин.</t>
+  </si>
+  <si>
+    <t>1971, 91 мин.</t>
+  </si>
+  <si>
+    <t>1998, 169 мин.</t>
+  </si>
+  <si>
+    <t>1976, 183 мин.</t>
+  </si>
+  <si>
+    <t>2003, 113 мин.</t>
+  </si>
+  <si>
+    <t>2006, 117 мин.</t>
+  </si>
+  <si>
+    <t>1921, 53 мин.</t>
+  </si>
+  <si>
+    <t>1959, 97 мин.</t>
+  </si>
+  <si>
+    <t>1989, 108 мин.</t>
+  </si>
+  <si>
+    <t>1991, 84 мин.</t>
+  </si>
+  <si>
+    <t>2019, 113 мин.</t>
+  </si>
+  <si>
+    <t>2004, 124 мин.</t>
+  </si>
+  <si>
+    <t>1980, 107 мин.</t>
+  </si>
+  <si>
+    <t>1953, 118 мин.</t>
+  </si>
+  <si>
+    <t>1983, 229 мин.</t>
+  </si>
+  <si>
+    <t>1977, 159 мин.</t>
+  </si>
+  <si>
+    <t>1939, 222 мин.</t>
+  </si>
+  <si>
+    <t>1995, 71 мин.</t>
+  </si>
+  <si>
+    <t>2005, 110 мин.</t>
+  </si>
+  <si>
+    <t>2006, 137 мин.</t>
+  </si>
+  <si>
+    <t>1997, 144 мин.</t>
+  </si>
+  <si>
+    <t>2018, 130 мин.</t>
+  </si>
+  <si>
+    <t>1984, 160 мин.</t>
+  </si>
+  <si>
+    <t>2004, 98 мин.</t>
+  </si>
+  <si>
+    <t>1975, 160 мин.</t>
+  </si>
+  <si>
     <t>https://www.kinopoisk.ru/film/326/</t>
   </si>
   <si>
@@ -728,6 +1262,156 @@
   </si>
   <si>
     <t>https://www.kinopoisk.ru/film/957887/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/348/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/349/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/77263/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/51481/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/377/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/345/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/4541/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/444/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/280172/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/586397/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/327/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/77335/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/12244/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/12198/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/399/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/46708/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/77269/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/408410/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/725190/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/519/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/470553/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/7724/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/627/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/395/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/775276/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/42736/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/371/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/46068/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/5167/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/104938/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/2127/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/44027/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/5502/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/540/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/1143242/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/3561/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/63912/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/497/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/469/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/43869/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/456/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/7097/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/437410/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/86326/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/126196/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/3797/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/1108577/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/397/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/84014/</t>
+  </si>
+  <si>
+    <t>https://www.kinopoisk.ru/film/42770/</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,16 +1813,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>188</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1149,16 +1833,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1169,16 +1853,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1189,16 +1873,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1209,16 +1893,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1229,16 +1913,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1249,16 +1933,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1269,16 +1953,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>274</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1289,16 +1973,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1312,13 +1996,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>276</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1329,16 +2013,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1349,16 +2033,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>199</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1369,16 +2053,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1389,16 +2073,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>201</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1412,13 +2096,13 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>202</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1429,16 +2113,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>203</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1449,16 +2133,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1469,16 +2153,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1489,16 +2173,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>206</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1509,16 +2193,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>207</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1529,16 +2213,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>208</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1549,16 +2233,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>209</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1569,16 +2253,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>210</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1592,13 +2276,13 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1609,16 +2293,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>212</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1629,16 +2313,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1649,16 +2333,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>214</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1669,16 +2353,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>294</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>215</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1692,13 +2376,13 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>216</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1709,16 +2393,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>217</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1729,16 +2413,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>297</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>218</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1749,16 +2433,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>219</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1769,16 +2453,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>220</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1792,13 +2476,13 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>300</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>221</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1809,16 +2493,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>222</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1829,16 +2513,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>223</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1849,16 +2533,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E38" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>224</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1869,16 +2553,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1889,16 +2573,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>226</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1909,16 +2593,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>227</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1929,16 +2613,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>228</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1949,16 +2633,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>229</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1969,16 +2653,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>230</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1989,16 +2673,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>231</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2009,16 +2693,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2029,16 +2713,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2049,16 +2733,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>234</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2072,13 +2756,13 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>235</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2092,13 +2776,13 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>236</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2109,16 +2793,1016 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" t="s">
+        <v>316</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" t="s">
+        <v>318</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" t="s">
+        <v>321</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" t="s">
+        <v>322</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" t="s">
+        <v>323</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" t="s">
+        <v>324</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" t="s">
+        <v>327</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63" t="s">
+        <v>328</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" t="s">
+        <v>329</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" t="s">
+        <v>330</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" t="s">
+        <v>332</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>241</v>
+      </c>
+      <c r="E68" t="s">
+        <v>333</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" t="s">
+        <v>334</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" t="s">
+        <v>243</v>
+      </c>
+      <c r="E70" t="s">
+        <v>335</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" t="s">
+        <v>336</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" t="s">
+        <v>337</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" t="s">
+        <v>338</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" t="s">
+        <v>339</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" t="s">
+        <v>341</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" t="s">
+        <v>249</v>
+      </c>
+      <c r="E77" t="s">
+        <v>342</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" t="s">
+        <v>343</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" t="s">
+        <v>344</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" t="s">
+        <v>345</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" t="s">
+        <v>346</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" t="s">
+        <v>347</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" t="s">
+        <v>348</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" t="s">
+        <v>349</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" t="s">
+        <v>350</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>351</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" t="s">
+        <v>352</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" t="s">
+        <v>353</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" t="s">
+        <v>258</v>
+      </c>
+      <c r="E89" t="s">
+        <v>354</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>259</v>
+      </c>
+      <c r="E90" t="s">
+        <v>355</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" t="s">
+        <v>356</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" t="s">
+        <v>357</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E93" t="s">
+        <v>358</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>97</v>
       </c>
-      <c r="D51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="s">
+        <v>326</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" t="s">
+        <v>359</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" t="s">
+        <v>360</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" t="s">
+        <v>361</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>266</v>
+      </c>
+      <c r="E98" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" t="s">
+        <v>363</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
         <v>187</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>237</v>
+      <c r="D100" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" t="s">
+        <v>364</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" t="s">
+        <v>365</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -2173,6 +3857,56 @@
     <hyperlink ref="F49" r:id="rId48"/>
     <hyperlink ref="F50" r:id="rId49"/>
     <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F95" r:id="rId94"/>
+    <hyperlink ref="F96" r:id="rId95"/>
+    <hyperlink ref="F97" r:id="rId96"/>
+    <hyperlink ref="F98" r:id="rId97"/>
+    <hyperlink ref="F99" r:id="rId98"/>
+    <hyperlink ref="F100" r:id="rId99"/>
+    <hyperlink ref="F101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Films.xlsx
+++ b/Films.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morozsa\PycharmProjects\kpparser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01915D8C-D502-498B-A4EE-31311F36CF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="238">
   <si>
     <t>Name</t>
   </si>
@@ -181,156 +187,6 @@
     <t>Клаус</t>
   </si>
   <si>
-    <t>Эта замечательная жизнь</t>
-  </si>
-  <si>
-    <t>Хороший, плохой, злой</t>
-  </si>
-  <si>
-    <t>Приключения Шерлока Холмса и доктора Ватсона: Собака Баскервилей</t>
-  </si>
-  <si>
-    <t>Хористы</t>
-  </si>
-  <si>
-    <t>Семь</t>
-  </si>
-  <si>
-    <t>Молчание ягнят</t>
-  </si>
-  <si>
-    <t>Шоу Трумана</t>
-  </si>
-  <si>
-    <t>Терминатор 2: Судный день</t>
-  </si>
-  <si>
-    <t>Как приручить дракона</t>
-  </si>
-  <si>
-    <t>Джанго освобожденный</t>
-  </si>
-  <si>
-    <t>Крестный отец 2</t>
-  </si>
-  <si>
-    <t>Собачье сердце</t>
-  </si>
-  <si>
-    <t>Нокдаун</t>
-  </si>
-  <si>
-    <t>Игра</t>
-  </si>
-  <si>
-    <t>Храброе сердце</t>
-  </si>
-  <si>
-    <t>Москва слезам не верит</t>
-  </si>
-  <si>
-    <t>Шерлок Холмс и доктор Ватсон: Знакомство</t>
-  </si>
-  <si>
-    <t>Гран Торино</t>
-  </si>
-  <si>
-    <t>Одержимость</t>
-  </si>
-  <si>
-    <t>Человек дождя</t>
-  </si>
-  <si>
-    <t>Прислуга</t>
-  </si>
-  <si>
-    <t>Летят журавли</t>
-  </si>
-  <si>
-    <t>Изгой</t>
-  </si>
-  <si>
-    <t>Шестое чувство</t>
-  </si>
-  <si>
-    <t>Зверополис</t>
-  </si>
-  <si>
-    <t>Офицеры</t>
-  </si>
-  <si>
-    <t>Спасти рядового Райана</t>
-  </si>
-  <si>
-    <t>Белый Бим Черное ухо</t>
-  </si>
-  <si>
-    <t>Эффект бабочки</t>
-  </si>
-  <si>
-    <t>В погоне за счастьем</t>
-  </si>
-  <si>
-    <t>Малыш</t>
-  </si>
-  <si>
-    <t>Судьба человека</t>
-  </si>
-  <si>
-    <t>Назад в будущее 2</t>
-  </si>
-  <si>
-    <t>Красавица и чудовище</t>
-  </si>
-  <si>
-    <t>Джентльмены</t>
-  </si>
-  <si>
-    <t>Дневник памяти</t>
-  </si>
-  <si>
-    <t>Укрощение строптивого</t>
-  </si>
-  <si>
-    <t>Римские каникулы</t>
-  </si>
-  <si>
-    <t>Однажды в Америке</t>
-  </si>
-  <si>
-    <t>Служебный роман</t>
-  </si>
-  <si>
-    <t>Унесённые ветром</t>
-  </si>
-  <si>
-    <t>Балто</t>
-  </si>
-  <si>
-    <t>Темный рыцарь: Возрождение легенды</t>
-  </si>
-  <si>
-    <t>Счастливое число Слевина</t>
-  </si>
-  <si>
-    <t>Жизнь других</t>
-  </si>
-  <si>
-    <t>Адвокат дьявола</t>
-  </si>
-  <si>
-    <t>Зеленая книга</t>
-  </si>
-  <si>
-    <t>Амадей</t>
-  </si>
-  <si>
-    <t>…А в душе я танцую</t>
-  </si>
-  <si>
-    <t>Они сражались за Родину</t>
-  </si>
-  <si>
     <t>The Shawshank Redemption</t>
   </si>
   <si>
@@ -460,126 +316,6 @@
     <t>Klaus</t>
   </si>
   <si>
-    <t>It's a Wonderful Life</t>
-  </si>
-  <si>
-    <t>Il buono, il brutto, il cattivo</t>
-  </si>
-  <si>
-    <t>Les Choristes</t>
-  </si>
-  <si>
-    <t>Se7en</t>
-  </si>
-  <si>
-    <t>The Silence of the Lambs</t>
-  </si>
-  <si>
-    <t>The Truman Show</t>
-  </si>
-  <si>
-    <t>Terminator 2: Judgment Day</t>
-  </si>
-  <si>
-    <t>How to Train Your Dragon</t>
-  </si>
-  <si>
-    <t>Django Unchained</t>
-  </si>
-  <si>
-    <t>The Godfather: Part II</t>
-  </si>
-  <si>
-    <t>Cinderella Man</t>
-  </si>
-  <si>
-    <t>The Game</t>
-  </si>
-  <si>
-    <t>Braveheart</t>
-  </si>
-  <si>
-    <t>Gran Torino</t>
-  </si>
-  <si>
-    <t>Whiplash</t>
-  </si>
-  <si>
-    <t>Rain Man</t>
-  </si>
-  <si>
-    <t>The Help</t>
-  </si>
-  <si>
-    <t>Cast Away</t>
-  </si>
-  <si>
-    <t>The Sixth Sense</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>Saving Private Ryan</t>
-  </si>
-  <si>
-    <t>The Butterfly Effect</t>
-  </si>
-  <si>
-    <t>The Pursuit of Happyness</t>
-  </si>
-  <si>
-    <t>The Kid</t>
-  </si>
-  <si>
-    <t>Back to the Future Part II</t>
-  </si>
-  <si>
-    <t>Beauty and the Beast</t>
-  </si>
-  <si>
-    <t>The Gentlemen</t>
-  </si>
-  <si>
-    <t>The Notebook</t>
-  </si>
-  <si>
-    <t>Il bisbetico domato</t>
-  </si>
-  <si>
-    <t>Roman Holiday</t>
-  </si>
-  <si>
-    <t>Once Upon a Time in America</t>
-  </si>
-  <si>
-    <t>Gone with the Wind</t>
-  </si>
-  <si>
-    <t>Balto</t>
-  </si>
-  <si>
-    <t>The Dark Knight Rises</t>
-  </si>
-  <si>
-    <t>Lucky Number Slevin</t>
-  </si>
-  <si>
-    <t>Das Leben der Anderen</t>
-  </si>
-  <si>
-    <t>The Devil's Advocate</t>
-  </si>
-  <si>
-    <t>Green Book</t>
-  </si>
-  <si>
-    <t>Amadeus</t>
-  </si>
-  <si>
-    <t>Inside I'm Dancing</t>
-  </si>
-  <si>
     <t>США • драма  Режиссёр: Фрэнк Дарабонт</t>
   </si>
   <si>
@@ -703,123 +439,6 @@
     <t>Испания • мультфильм  Режиссёр: Серхио Паблос</t>
   </si>
   <si>
-    <t>США • фэнтези  Режиссёр: Фрэнк Капра</t>
-  </si>
-  <si>
-    <t>Италия • приключения  Режиссёр: Серджио Леоне</t>
-  </si>
-  <si>
-    <t>СССР • детектив  Режиссёр: Игорь Масленников</t>
-  </si>
-  <si>
-    <t>Франция • драма  Режиссёр: Кристоф Барратье</t>
-  </si>
-  <si>
-    <t>США • триллер  Режиссёр: Джонатан Демме</t>
-  </si>
-  <si>
-    <t>США • драма  Режиссёр: Питер Уир</t>
-  </si>
-  <si>
-    <t>США • фантастика  Режиссёр: Джеймс Кэмерон</t>
-  </si>
-  <si>
-    <t>США • мультфильм  Режиссёр: Дин ДеБлуа</t>
-  </si>
-  <si>
-    <t>США • вестерн  Режиссёр: Квентин Тарантино</t>
-  </si>
-  <si>
-    <t>СССР • фантастика  Режиссёр: Владимир Бортко</t>
-  </si>
-  <si>
-    <t>США • история  Режиссёр: Мэл Гибсон</t>
-  </si>
-  <si>
-    <t>СССР • мелодрама  Режиссёр: Владимир Меньшов</t>
-  </si>
-  <si>
-    <t>СССР • криминал  Режиссёр: Игорь Масленников</t>
-  </si>
-  <si>
-    <t>США • драма  Режиссёр: Клинт Иствуд</t>
-  </si>
-  <si>
-    <t>США • драма  Режиссёр: Дэмьен Шазелл</t>
-  </si>
-  <si>
-    <t>США • драма  Режиссёр: Барри Левинсон</t>
-  </si>
-  <si>
-    <t>США • драма  Режиссёр: Тейт Тейлор</t>
-  </si>
-  <si>
-    <t>СССР • военный  Режиссёр: Михаил Калатозов</t>
-  </si>
-  <si>
-    <t>США • детектив  Режиссёр: М. Найт Шьямалан</t>
-  </si>
-  <si>
-    <t>США • мультфильм  Режиссёр: Байрон Ховард</t>
-  </si>
-  <si>
-    <t>СССР • драма  Режиссёр: Владимир Роговой</t>
-  </si>
-  <si>
-    <t>США • военный  Режиссёр: Стивен Спилберг</t>
-  </si>
-  <si>
-    <t>США • фантастика  Режиссёр: Эрик Бресс</t>
-  </si>
-  <si>
-    <t>США • драма  Режиссёр: Габриэле Муччино</t>
-  </si>
-  <si>
-    <t>США • драма  Режиссёр: Чарльз Чаплин</t>
-  </si>
-  <si>
-    <t>СССР • драма  Режиссёр: Сергей Бондарчук</t>
-  </si>
-  <si>
-    <t>США • мультфильм  Режиссёр: Гари Труздейл</t>
-  </si>
-  <si>
-    <t>США • драма  Режиссёр: Ник Кассаветис</t>
-  </si>
-  <si>
-    <t>Италия • мелодрама  Режиссёр: Франко Кастеллано</t>
-  </si>
-  <si>
-    <t>США • мелодрама  Режиссёр: Уильям Уайлер</t>
-  </si>
-  <si>
-    <t>Италия • драма  Режиссёр: Серджио Леоне</t>
-  </si>
-  <si>
-    <t>СССР • мелодрама  Режиссёр: Эльдар Рязанов</t>
-  </si>
-  <si>
-    <t>США • мелодрама  Режиссёр: Виктор Флеминг</t>
-  </si>
-  <si>
-    <t>США • мультфильм  Режиссёр: Саймон Уэллс</t>
-  </si>
-  <si>
-    <t>США • триллер  Режиссёр: Пол Макгиган</t>
-  </si>
-  <si>
-    <t>Германия • триллер  Режиссёр: Флориан Хенкель фон Доннерсмарк</t>
-  </si>
-  <si>
-    <t>США • триллер  Режиссёр: Тейлор Хэкфорд</t>
-  </si>
-  <si>
-    <t>США • биография  Режиссёр: Питер Фаррелли</t>
-  </si>
-  <si>
-    <t>Великобритания • драма  Режиссёр: Дэмиен О’Доннелл</t>
-  </si>
-  <si>
     <t>1994, 142 мин.</t>
   </si>
   <si>
@@ -967,153 +586,6 @@
     <t>2019, 96 мин.</t>
   </si>
   <si>
-    <t>1947, 130 мин.</t>
-  </si>
-  <si>
-    <t>1966, 178 мин.</t>
-  </si>
-  <si>
-    <t>1981, 154 мин.</t>
-  </si>
-  <si>
-    <t>2004, 95 мин.</t>
-  </si>
-  <si>
-    <t>1995, 127 мин.</t>
-  </si>
-  <si>
-    <t>1990, 118 мин.</t>
-  </si>
-  <si>
-    <t>1998, 103 мин.</t>
-  </si>
-  <si>
-    <t>1991, 137 мин.</t>
-  </si>
-  <si>
-    <t>2010, 98 мин.</t>
-  </si>
-  <si>
-    <t>2012, 165 мин.</t>
-  </si>
-  <si>
-    <t>1974, 202 мин.</t>
-  </si>
-  <si>
-    <t>1988, 136 мин.</t>
-  </si>
-  <si>
-    <t>2005, 144 мин.</t>
-  </si>
-  <si>
-    <t>1997, 129 мин.</t>
-  </si>
-  <si>
-    <t>1995, 178 мин.</t>
-  </si>
-  <si>
-    <t>1979, 150 мин.</t>
-  </si>
-  <si>
-    <t>1979, 68 мин.</t>
-  </si>
-  <si>
-    <t>2008, 116 мин.</t>
-  </si>
-  <si>
-    <t>2013, 106 мин.</t>
-  </si>
-  <si>
-    <t>1988, 133 мин.</t>
-  </si>
-  <si>
-    <t>2011, 146 мин.</t>
-  </si>
-  <si>
-    <t>1957, 95 мин.</t>
-  </si>
-  <si>
-    <t>2000, 143 мин.</t>
-  </si>
-  <si>
-    <t>1999, 107 мин.</t>
-  </si>
-  <si>
-    <t>2016, 108 мин.</t>
-  </si>
-  <si>
-    <t>1971, 91 мин.</t>
-  </si>
-  <si>
-    <t>1998, 169 мин.</t>
-  </si>
-  <si>
-    <t>1976, 183 мин.</t>
-  </si>
-  <si>
-    <t>2003, 113 мин.</t>
-  </si>
-  <si>
-    <t>2006, 117 мин.</t>
-  </si>
-  <si>
-    <t>1921, 53 мин.</t>
-  </si>
-  <si>
-    <t>1959, 97 мин.</t>
-  </si>
-  <si>
-    <t>1989, 108 мин.</t>
-  </si>
-  <si>
-    <t>1991, 84 мин.</t>
-  </si>
-  <si>
-    <t>2019, 113 мин.</t>
-  </si>
-  <si>
-    <t>2004, 124 мин.</t>
-  </si>
-  <si>
-    <t>1980, 107 мин.</t>
-  </si>
-  <si>
-    <t>1953, 118 мин.</t>
-  </si>
-  <si>
-    <t>1983, 229 мин.</t>
-  </si>
-  <si>
-    <t>1977, 159 мин.</t>
-  </si>
-  <si>
-    <t>1939, 222 мин.</t>
-  </si>
-  <si>
-    <t>1995, 71 мин.</t>
-  </si>
-  <si>
-    <t>2005, 110 мин.</t>
-  </si>
-  <si>
-    <t>2006, 137 мин.</t>
-  </si>
-  <si>
-    <t>1997, 144 мин.</t>
-  </si>
-  <si>
-    <t>2018, 130 мин.</t>
-  </si>
-  <si>
-    <t>1984, 160 мин.</t>
-  </si>
-  <si>
-    <t>2004, 98 мин.</t>
-  </si>
-  <si>
-    <t>1975, 160 мин.</t>
-  </si>
-  <si>
     <t>https://www.kinopoisk.ru/film/326/</t>
   </si>
   <si>
@@ -1262,163 +734,13 @@
   </si>
   <si>
     <t>https://www.kinopoisk.ru/film/957887/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/348/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/349/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/77263/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/51481/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/377/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/345/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/4541/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/444/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/280172/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/586397/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/327/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/77335/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/12244/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/12198/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/399/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/46708/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/77269/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/408410/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/725190/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/519/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/470553/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/7724/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/627/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/395/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/775276/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/42736/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/371/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/46068/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/5167/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/104938/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/2127/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/44027/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/5502/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/540/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/1143242/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/3561/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/63912/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/497/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/469/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/43869/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/456/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/7097/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/437410/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/86326/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/126196/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/3797/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/1108577/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/397/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/84014/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/film/42770/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,6 +816,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1540,7 +870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1572,9 +902,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1606,6 +954,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1781,14 +1147,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="2" max="2" width="41.26953125" customWidth="1"/>
+    <col min="3" max="3" width="42.6328125" customWidth="1"/>
+    <col min="4" max="4" width="50.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="25.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1813,19 +1189,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1833,19 +1209,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1853,19 +1229,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1873,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1893,19 +1269,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>142</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1913,19 +1289,19 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>143</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1933,19 +1309,19 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1953,19 +1329,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1973,19 +1349,19 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1996,16 +1372,16 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>147</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2013,19 +1389,19 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2033,19 +1409,19 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2053,19 +1429,19 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2073,19 +1449,19 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2096,16 +1472,16 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2113,19 +1489,19 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2133,19 +1509,19 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2153,19 +1529,19 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2173,19 +1549,19 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2193,19 +1569,19 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2213,19 +1589,19 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2233,19 +1609,19 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>159</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2253,19 +1629,19 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2276,16 +1652,16 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2293,19 +1669,19 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2313,19 +1689,19 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2333,19 +1709,19 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>164</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2353,19 +1729,19 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2376,16 +1752,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2393,19 +1769,19 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2413,19 +1789,19 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2433,19 +1809,19 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2453,19 +1829,19 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2476,16 +1852,16 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2493,19 +1869,19 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2513,19 +1889,19 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2533,19 +1909,19 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2553,19 +1929,19 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2573,19 +1949,19 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>305</v>
+        <v>176</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2593,19 +1969,19 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>306</v>
+        <v>177</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2613,19 +1989,19 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>307</v>
+        <v>178</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2633,19 +2009,19 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>179</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2653,19 +2029,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2673,19 +2049,19 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2693,19 +2069,19 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>311</v>
+        <v>182</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2713,19 +2089,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2733,19 +2109,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2756,16 +2132,16 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2776,16 +2152,16 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2793,1120 +2169,4270 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>316</v>
+        <v>187</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="C52" t="s">
-        <v>148</v>
-      </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="C53" t="s">
-        <v>149</v>
-      </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>318</v>
+        <v>140</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
         <v>58</v>
       </c>
-      <c r="C55" t="s">
-        <v>150</v>
-      </c>
       <c r="D55" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
         <v>59</v>
       </c>
-      <c r="C56" t="s">
-        <v>151</v>
-      </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
-        <v>321</v>
+        <v>142</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
         <v>60</v>
       </c>
-      <c r="C57" t="s">
-        <v>152</v>
-      </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
         <v>61</v>
       </c>
-      <c r="C58" t="s">
-        <v>153</v>
-      </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
         <v>62</v>
       </c>
-      <c r="C59" t="s">
-        <v>154</v>
-      </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
-        <v>324</v>
+        <v>145</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="s">
-        <v>155</v>
-      </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
-        <v>325</v>
+        <v>146</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>327</v>
+        <v>148</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>151</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>331</v>
+        <v>152</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="E68" t="s">
-        <v>333</v>
+        <v>154</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="E70" t="s">
-        <v>335</v>
+        <v>156</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>336</v>
+        <v>157</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="E72" t="s">
-        <v>337</v>
+        <v>158</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="E73" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>339</v>
+        <v>160</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="E76" t="s">
-        <v>341</v>
+        <v>162</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="E77" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>343</v>
+        <v>164</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="E79" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>345</v>
+        <v>166</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="E83" t="s">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>170</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>351</v>
+        <v>172</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="E87" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="E88" t="s">
-        <v>353</v>
+        <v>174</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>355</v>
+        <v>176</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>177</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="E92" t="s">
-        <v>357</v>
+        <v>178</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="E94" t="s">
-        <v>326</v>
+        <v>180</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="E95" t="s">
-        <v>359</v>
+        <v>181</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="E96" t="s">
-        <v>360</v>
+        <v>182</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="E97" t="s">
-        <v>361</v>
+        <v>183</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="E98" t="s">
-        <v>362</v>
+        <v>184</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="E99" t="s">
-        <v>363</v>
+        <v>185</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="E100" t="s">
-        <v>364</v>
+        <v>186</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" t="s">
+        <v>187</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" t="s">
+        <v>141</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" t="s">
+        <v>144</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" t="s">
         <v>104</v>
       </c>
-      <c r="D101" t="s">
-        <v>254</v>
-      </c>
-      <c r="E101" t="s">
-        <v>365</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>465</v>
+      <c r="E109" t="s">
+        <v>145</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" t="s">
+        <v>146</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" t="s">
+        <v>147</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" t="s">
+        <v>149</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" t="s">
+        <v>150</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E115" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>106</v>
+      </c>
+      <c r="E116" t="s">
+        <v>152</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" t="s">
+        <v>153</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>69</v>
+      </c>
+      <c r="D118" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" t="s">
+        <v>154</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" t="s">
+        <v>102</v>
+      </c>
+      <c r="E119" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>71</v>
+      </c>
+      <c r="D120" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" t="s">
+        <v>157</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>73</v>
+      </c>
+      <c r="D122" t="s">
+        <v>115</v>
+      </c>
+      <c r="E122" t="s">
+        <v>158</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D123" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" t="s">
+        <v>75</v>
+      </c>
+      <c r="D124" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" t="s">
+        <v>160</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>106</v>
+      </c>
+      <c r="E125" t="s">
+        <v>161</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" t="s">
+        <v>162</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" t="s">
+        <v>163</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" t="s">
+        <v>78</v>
+      </c>
+      <c r="D128" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" t="s">
+        <v>164</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" t="s">
+        <v>113</v>
+      </c>
+      <c r="E129" t="s">
+        <v>165</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" t="s">
+        <v>166</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" t="s">
+        <v>80</v>
+      </c>
+      <c r="D131" t="s">
+        <v>122</v>
+      </c>
+      <c r="E131" t="s">
+        <v>167</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" t="s">
+        <v>123</v>
+      </c>
+      <c r="E132" t="s">
+        <v>168</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133" t="s">
+        <v>124</v>
+      </c>
+      <c r="E133" t="s">
+        <v>169</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>37</v>
+      </c>
+      <c r="C134" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" t="s">
+        <v>170</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" t="s">
+        <v>125</v>
+      </c>
+      <c r="E135" t="s">
+        <v>171</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" t="s">
+        <v>126</v>
+      </c>
+      <c r="E136" t="s">
+        <v>172</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" t="s">
+        <v>85</v>
+      </c>
+      <c r="D137" t="s">
+        <v>127</v>
+      </c>
+      <c r="E137" t="s">
+        <v>173</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138" t="s">
+        <v>174</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" t="s">
+        <v>87</v>
+      </c>
+      <c r="D139" t="s">
+        <v>102</v>
+      </c>
+      <c r="E139" t="s">
+        <v>175</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" t="s">
+        <v>88</v>
+      </c>
+      <c r="D140" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" t="s">
+        <v>176</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" t="s">
+        <v>177</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" t="s">
+        <v>130</v>
+      </c>
+      <c r="E142" t="s">
+        <v>178</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" t="s">
+        <v>91</v>
+      </c>
+      <c r="D143" t="s">
+        <v>131</v>
+      </c>
+      <c r="E143" t="s">
+        <v>179</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" t="s">
+        <v>92</v>
+      </c>
+      <c r="D144" t="s">
+        <v>132</v>
+      </c>
+      <c r="E144" t="s">
+        <v>180</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D145" t="s">
+        <v>133</v>
+      </c>
+      <c r="E145" t="s">
+        <v>181</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D146" t="s">
+        <v>134</v>
+      </c>
+      <c r="E146" t="s">
+        <v>182</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" t="s">
+        <v>135</v>
+      </c>
+      <c r="E147" t="s">
+        <v>183</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" t="s">
+        <v>136</v>
+      </c>
+      <c r="E148" t="s">
+        <v>184</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" t="s">
+        <v>52</v>
+      </c>
+      <c r="D149" t="s">
+        <v>137</v>
+      </c>
+      <c r="E149" t="s">
+        <v>185</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" t="s">
+        <v>106</v>
+      </c>
+      <c r="E150" t="s">
+        <v>186</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" t="s">
+        <v>138</v>
+      </c>
+      <c r="E151" t="s">
+        <v>187</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>55</v>
+      </c>
+      <c r="D152" t="s">
+        <v>98</v>
+      </c>
+      <c r="E152" t="s">
+        <v>139</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" t="s">
+        <v>98</v>
+      </c>
+      <c r="E153" t="s">
+        <v>140</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" t="s">
+        <v>99</v>
+      </c>
+      <c r="E154" t="s">
+        <v>139</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155" t="s">
+        <v>100</v>
+      </c>
+      <c r="E155" t="s">
+        <v>141</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>59</v>
+      </c>
+      <c r="D156" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>60</v>
+      </c>
+      <c r="D157" t="s">
+        <v>102</v>
+      </c>
+      <c r="E157" t="s">
+        <v>143</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>61</v>
+      </c>
+      <c r="D158" t="s">
+        <v>103</v>
+      </c>
+      <c r="E158" t="s">
+        <v>144</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>62</v>
+      </c>
+      <c r="D159" t="s">
+        <v>104</v>
+      </c>
+      <c r="E159" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>105</v>
+      </c>
+      <c r="E160" t="s">
+        <v>146</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>106</v>
+      </c>
+      <c r="E161" t="s">
+        <v>147</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
+        <v>107</v>
+      </c>
+      <c r="E162" t="s">
+        <v>148</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" t="s">
+        <v>108</v>
+      </c>
+      <c r="E163" t="s">
+        <v>149</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>66</v>
+      </c>
+      <c r="D164" t="s">
+        <v>109</v>
+      </c>
+      <c r="E164" t="s">
+        <v>150</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>67</v>
+      </c>
+      <c r="D165" t="s">
+        <v>110</v>
+      </c>
+      <c r="E165" t="s">
+        <v>151</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" t="s">
+        <v>106</v>
+      </c>
+      <c r="E166" t="s">
+        <v>152</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>111</v>
+      </c>
+      <c r="E167" t="s">
+        <v>153</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168" t="s">
+        <v>112</v>
+      </c>
+      <c r="E168" t="s">
+        <v>154</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" t="s">
+        <v>70</v>
+      </c>
+      <c r="D169" t="s">
+        <v>102</v>
+      </c>
+      <c r="E169" t="s">
+        <v>155</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" t="s">
+        <v>71</v>
+      </c>
+      <c r="D170" t="s">
+        <v>113</v>
+      </c>
+      <c r="E170" t="s">
+        <v>156</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" t="s">
+        <v>72</v>
+      </c>
+      <c r="D171" t="s">
+        <v>114</v>
+      </c>
+      <c r="E171" t="s">
+        <v>157</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>73</v>
+      </c>
+      <c r="D172" t="s">
+        <v>115</v>
+      </c>
+      <c r="E172" t="s">
+        <v>158</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" t="s">
+        <v>74</v>
+      </c>
+      <c r="D173" t="s">
+        <v>116</v>
+      </c>
+      <c r="E173" t="s">
+        <v>159</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" t="s">
+        <v>75</v>
+      </c>
+      <c r="D174" t="s">
+        <v>117</v>
+      </c>
+      <c r="E174" t="s">
+        <v>160</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>106</v>
+      </c>
+      <c r="E175" t="s">
+        <v>161</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" t="s">
+        <v>76</v>
+      </c>
+      <c r="D176" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" t="s">
+        <v>162</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177" t="s">
+        <v>77</v>
+      </c>
+      <c r="D177" t="s">
+        <v>119</v>
+      </c>
+      <c r="E177" t="s">
+        <v>163</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>78</v>
+      </c>
+      <c r="D178" t="s">
+        <v>120</v>
+      </c>
+      <c r="E178" t="s">
+        <v>164</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" t="s">
+        <v>79</v>
+      </c>
+      <c r="D179" t="s">
+        <v>113</v>
+      </c>
+      <c r="E179" t="s">
+        <v>165</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s">
+        <v>121</v>
+      </c>
+      <c r="E180" t="s">
+        <v>166</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s">
+        <v>80</v>
+      </c>
+      <c r="D181" t="s">
+        <v>122</v>
+      </c>
+      <c r="E181" t="s">
+        <v>167</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" t="s">
+        <v>81</v>
+      </c>
+      <c r="D182" t="s">
+        <v>123</v>
+      </c>
+      <c r="E182" t="s">
+        <v>168</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" t="s">
+        <v>82</v>
+      </c>
+      <c r="D183" t="s">
+        <v>124</v>
+      </c>
+      <c r="E183" t="s">
+        <v>169</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>37</v>
+      </c>
+      <c r="C184" t="s">
+        <v>83</v>
+      </c>
+      <c r="D184" t="s">
+        <v>113</v>
+      </c>
+      <c r="E184" t="s">
+        <v>170</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>38</v>
+      </c>
+      <c r="C185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D185" t="s">
+        <v>125</v>
+      </c>
+      <c r="E185" t="s">
+        <v>171</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>39</v>
+      </c>
+      <c r="C186" t="s">
+        <v>84</v>
+      </c>
+      <c r="D186" t="s">
+        <v>126</v>
+      </c>
+      <c r="E186" t="s">
+        <v>172</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" t="s">
+        <v>85</v>
+      </c>
+      <c r="D187" t="s">
+        <v>127</v>
+      </c>
+      <c r="E187" t="s">
+        <v>173</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>41</v>
+      </c>
+      <c r="C188" t="s">
+        <v>86</v>
+      </c>
+      <c r="D188" t="s">
+        <v>118</v>
+      </c>
+      <c r="E188" t="s">
+        <v>174</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>42</v>
+      </c>
+      <c r="C189" t="s">
+        <v>87</v>
+      </c>
+      <c r="D189" t="s">
+        <v>102</v>
+      </c>
+      <c r="E189" t="s">
+        <v>175</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C190" t="s">
+        <v>88</v>
+      </c>
+      <c r="D190" t="s">
+        <v>128</v>
+      </c>
+      <c r="E190" t="s">
+        <v>176</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>44</v>
+      </c>
+      <c r="C191" t="s">
+        <v>89</v>
+      </c>
+      <c r="D191" t="s">
+        <v>129</v>
+      </c>
+      <c r="E191" t="s">
+        <v>177</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>45</v>
+      </c>
+      <c r="C192" t="s">
+        <v>90</v>
+      </c>
+      <c r="D192" t="s">
+        <v>130</v>
+      </c>
+      <c r="E192" t="s">
+        <v>178</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>46</v>
+      </c>
+      <c r="C193" t="s">
+        <v>91</v>
+      </c>
+      <c r="D193" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" t="s">
+        <v>179</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" t="s">
+        <v>92</v>
+      </c>
+      <c r="D194" t="s">
+        <v>132</v>
+      </c>
+      <c r="E194" t="s">
+        <v>180</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195" t="s">
+        <v>93</v>
+      </c>
+      <c r="D195" t="s">
+        <v>133</v>
+      </c>
+      <c r="E195" t="s">
+        <v>181</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>49</v>
+      </c>
+      <c r="C196" t="s">
+        <v>94</v>
+      </c>
+      <c r="D196" t="s">
+        <v>134</v>
+      </c>
+      <c r="E196" t="s">
+        <v>182</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>50</v>
+      </c>
+      <c r="C197" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" t="s">
+        <v>135</v>
+      </c>
+      <c r="E197" t="s">
+        <v>183</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>51</v>
+      </c>
+      <c r="C198" t="s">
+        <v>96</v>
+      </c>
+      <c r="D198" t="s">
+        <v>136</v>
+      </c>
+      <c r="E198" t="s">
+        <v>184</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>52</v>
+      </c>
+      <c r="C199" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" t="s">
+        <v>137</v>
+      </c>
+      <c r="E199" t="s">
+        <v>185</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200" t="s">
+        <v>53</v>
+      </c>
+      <c r="D200" t="s">
+        <v>106</v>
+      </c>
+      <c r="E200" t="s">
+        <v>186</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>54</v>
+      </c>
+      <c r="C201" t="s">
+        <v>97</v>
+      </c>
+      <c r="D201" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" t="s">
+        <v>187</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>55</v>
+      </c>
+      <c r="D202" t="s">
+        <v>98</v>
+      </c>
+      <c r="E202" t="s">
+        <v>139</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>56</v>
+      </c>
+      <c r="D203" t="s">
+        <v>98</v>
+      </c>
+      <c r="E203" t="s">
+        <v>140</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>57</v>
+      </c>
+      <c r="D204" t="s">
+        <v>99</v>
+      </c>
+      <c r="E204" t="s">
+        <v>139</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>58</v>
+      </c>
+      <c r="D205" t="s">
+        <v>100</v>
+      </c>
+      <c r="E205" t="s">
+        <v>141</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>59</v>
+      </c>
+      <c r="D206" t="s">
+        <v>101</v>
+      </c>
+      <c r="E206" t="s">
+        <v>142</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>60</v>
+      </c>
+      <c r="D207" t="s">
+        <v>102</v>
+      </c>
+      <c r="E207" t="s">
+        <v>143</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>61</v>
+      </c>
+      <c r="D208" t="s">
+        <v>103</v>
+      </c>
+      <c r="E208" t="s">
+        <v>144</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>62</v>
+      </c>
+      <c r="D209" t="s">
+        <v>104</v>
+      </c>
+      <c r="E209" t="s">
+        <v>145</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>105</v>
+      </c>
+      <c r="E210" t="s">
+        <v>146</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s">
+        <v>106</v>
+      </c>
+      <c r="E211" t="s">
+        <v>147</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" t="s">
+        <v>64</v>
+      </c>
+      <c r="D212" t="s">
+        <v>107</v>
+      </c>
+      <c r="E212" t="s">
+        <v>148</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" t="s">
+        <v>65</v>
+      </c>
+      <c r="D213" t="s">
+        <v>108</v>
+      </c>
+      <c r="E213" t="s">
+        <v>149</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>17</v>
+      </c>
+      <c r="C214" t="s">
+        <v>66</v>
+      </c>
+      <c r="D214" t="s">
+        <v>109</v>
+      </c>
+      <c r="E214" t="s">
+        <v>150</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" t="s">
+        <v>67</v>
+      </c>
+      <c r="D215" t="s">
+        <v>110</v>
+      </c>
+      <c r="E215" t="s">
+        <v>151</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" t="s">
+        <v>106</v>
+      </c>
+      <c r="E216" t="s">
+        <v>152</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>111</v>
+      </c>
+      <c r="E217" t="s">
+        <v>153</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" t="s">
+        <v>69</v>
+      </c>
+      <c r="D218" t="s">
+        <v>112</v>
+      </c>
+      <c r="E218" t="s">
+        <v>154</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" t="s">
+        <v>70</v>
+      </c>
+      <c r="D219" t="s">
+        <v>102</v>
+      </c>
+      <c r="E219" t="s">
+        <v>155</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" t="s">
+        <v>71</v>
+      </c>
+      <c r="D220" t="s">
+        <v>113</v>
+      </c>
+      <c r="E220" t="s">
+        <v>156</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" t="s">
+        <v>72</v>
+      </c>
+      <c r="D221" t="s">
+        <v>114</v>
+      </c>
+      <c r="E221" t="s">
+        <v>157</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" t="s">
+        <v>73</v>
+      </c>
+      <c r="D222" t="s">
+        <v>115</v>
+      </c>
+      <c r="E222" t="s">
+        <v>158</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>26</v>
+      </c>
+      <c r="C223" t="s">
+        <v>74</v>
+      </c>
+      <c r="D223" t="s">
+        <v>116</v>
+      </c>
+      <c r="E223" t="s">
+        <v>159</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" t="s">
+        <v>75</v>
+      </c>
+      <c r="D224" t="s">
+        <v>117</v>
+      </c>
+      <c r="E224" t="s">
+        <v>160</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>28</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>106</v>
+      </c>
+      <c r="E225" t="s">
+        <v>161</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" t="s">
+        <v>76</v>
+      </c>
+      <c r="D226" t="s">
+        <v>118</v>
+      </c>
+      <c r="E226" t="s">
+        <v>162</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227" t="s">
+        <v>77</v>
+      </c>
+      <c r="D227" t="s">
+        <v>119</v>
+      </c>
+      <c r="E227" t="s">
+        <v>163</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" t="s">
+        <v>78</v>
+      </c>
+      <c r="D228" t="s">
+        <v>120</v>
+      </c>
+      <c r="E228" t="s">
+        <v>164</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>32</v>
+      </c>
+      <c r="C229" t="s">
+        <v>79</v>
+      </c>
+      <c r="D229" t="s">
+        <v>113</v>
+      </c>
+      <c r="E229" t="s">
+        <v>165</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230" t="s">
+        <v>121</v>
+      </c>
+      <c r="E230" t="s">
+        <v>166</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>34</v>
+      </c>
+      <c r="C231" t="s">
+        <v>80</v>
+      </c>
+      <c r="D231" t="s">
+        <v>122</v>
+      </c>
+      <c r="E231" t="s">
+        <v>167</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" t="s">
+        <v>81</v>
+      </c>
+      <c r="D232" t="s">
+        <v>123</v>
+      </c>
+      <c r="E232" t="s">
+        <v>168</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>36</v>
+      </c>
+      <c r="C233" t="s">
+        <v>82</v>
+      </c>
+      <c r="D233" t="s">
+        <v>124</v>
+      </c>
+      <c r="E233" t="s">
+        <v>169</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>37</v>
+      </c>
+      <c r="C234" t="s">
+        <v>83</v>
+      </c>
+      <c r="D234" t="s">
+        <v>113</v>
+      </c>
+      <c r="E234" t="s">
+        <v>170</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" t="s">
+        <v>125</v>
+      </c>
+      <c r="E235" t="s">
+        <v>171</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>39</v>
+      </c>
+      <c r="C236" t="s">
+        <v>84</v>
+      </c>
+      <c r="D236" t="s">
+        <v>126</v>
+      </c>
+      <c r="E236" t="s">
+        <v>172</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>40</v>
+      </c>
+      <c r="C237" t="s">
+        <v>85</v>
+      </c>
+      <c r="D237" t="s">
+        <v>127</v>
+      </c>
+      <c r="E237" t="s">
+        <v>173</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>41</v>
+      </c>
+      <c r="C238" t="s">
+        <v>86</v>
+      </c>
+      <c r="D238" t="s">
+        <v>118</v>
+      </c>
+      <c r="E238" t="s">
+        <v>174</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>42</v>
+      </c>
+      <c r="C239" t="s">
+        <v>87</v>
+      </c>
+      <c r="D239" t="s">
+        <v>102</v>
+      </c>
+      <c r="E239" t="s">
+        <v>175</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>43</v>
+      </c>
+      <c r="C240" t="s">
+        <v>88</v>
+      </c>
+      <c r="D240" t="s">
+        <v>128</v>
+      </c>
+      <c r="E240" t="s">
+        <v>176</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>44</v>
+      </c>
+      <c r="C241" t="s">
+        <v>89</v>
+      </c>
+      <c r="D241" t="s">
+        <v>129</v>
+      </c>
+      <c r="E241" t="s">
+        <v>177</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>45</v>
+      </c>
+      <c r="C242" t="s">
+        <v>90</v>
+      </c>
+      <c r="D242" t="s">
+        <v>130</v>
+      </c>
+      <c r="E242" t="s">
+        <v>178</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>46</v>
+      </c>
+      <c r="C243" t="s">
+        <v>91</v>
+      </c>
+      <c r="D243" t="s">
+        <v>131</v>
+      </c>
+      <c r="E243" t="s">
+        <v>179</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" t="s">
+        <v>92</v>
+      </c>
+      <c r="D244" t="s">
+        <v>132</v>
+      </c>
+      <c r="E244" t="s">
+        <v>180</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>48</v>
+      </c>
+      <c r="C245" t="s">
+        <v>93</v>
+      </c>
+      <c r="D245" t="s">
+        <v>133</v>
+      </c>
+      <c r="E245" t="s">
+        <v>181</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>49</v>
+      </c>
+      <c r="C246" t="s">
+        <v>94</v>
+      </c>
+      <c r="D246" t="s">
+        <v>134</v>
+      </c>
+      <c r="E246" t="s">
+        <v>182</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>50</v>
+      </c>
+      <c r="C247" t="s">
+        <v>95</v>
+      </c>
+      <c r="D247" t="s">
+        <v>135</v>
+      </c>
+      <c r="E247" t="s">
+        <v>183</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C248" t="s">
+        <v>96</v>
+      </c>
+      <c r="D248" t="s">
+        <v>136</v>
+      </c>
+      <c r="E248" t="s">
+        <v>184</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>52</v>
+      </c>
+      <c r="C249" t="s">
+        <v>52</v>
+      </c>
+      <c r="D249" t="s">
+        <v>137</v>
+      </c>
+      <c r="E249" t="s">
+        <v>185</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>53</v>
+      </c>
+      <c r="C250" t="s">
+        <v>53</v>
+      </c>
+      <c r="D250" t="s">
+        <v>106</v>
+      </c>
+      <c r="E250" t="s">
+        <v>186</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>54</v>
+      </c>
+      <c r="C251" t="s">
+        <v>97</v>
+      </c>
+      <c r="D251" t="s">
+        <v>138</v>
+      </c>
+      <c r="E251" t="s">
+        <v>187</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
-    <hyperlink ref="F95" r:id="rId94"/>
-    <hyperlink ref="F96" r:id="rId95"/>
-    <hyperlink ref="F97" r:id="rId96"/>
-    <hyperlink ref="F98" r:id="rId97"/>
-    <hyperlink ref="F99" r:id="rId98"/>
-    <hyperlink ref="F100" r:id="rId99"/>
-    <hyperlink ref="F101" r:id="rId100"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="F136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="F137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="F138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="F140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="F141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="F142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="F144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="F146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="F147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="F148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="F150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="F152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="F153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="F154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="F155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="F156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="F157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="F158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="F159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="F160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="F161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="F162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="F163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="F164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="F165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="F166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="F167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="F168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="F169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="F170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="F171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="F172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="F173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="F174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="F176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="F177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="F178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="F179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="F180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="F181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="F182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="F183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="F184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="F185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="F186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="F187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="F188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="F189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="F190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="F191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="F192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="F193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="F194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="F195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="F196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="F197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="F198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="F199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="F200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="F201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="F202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="F203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="F204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="F205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="F206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="F207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="F208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="F209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="F210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="F211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="F212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="F213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="F214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="F215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="F216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="F217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="F218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="F219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="F220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="F221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="F222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="F223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="F224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="F225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="F226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="F227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="F228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="F229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="F230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="F231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="F232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="F233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="F234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="F235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="F236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="F237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="F238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="F239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="F240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="F241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="F242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="F243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="F244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="F245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="F246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="F247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="F248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="F249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="F250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="F251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
